--- a/document/1. กลุ่มตรวจสอบ (1).xlsx
+++ b/document/1. กลุ่มตรวจสอบ (1).xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Simple\Desktop\directory\document\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\worachit.pa\Desktop\directory\document\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{93203493-612D-40E9-862B-B6A20DF39BC8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4A3F3724-7881-478D-9856-DED9E30AC46C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="สายงานตรวจสอบภายใน" sheetId="1" r:id="rId1"/>
@@ -1724,14 +1724,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:T1593"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E19" sqref="E19"/>
+      <selection pane="bottomLeft" activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="20.69921875" defaultRowHeight="11.4"/>
+  <sheetFormatPr defaultColWidth="20.75" defaultRowHeight="11.25"/>
   <cols>
-    <col min="1" max="16384" width="20.69921875" style="2"/>
+    <col min="1" max="16384" width="20.75" style="2"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:20">
@@ -19768,9 +19768,9 @@
       <selection activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="20.69921875" defaultRowHeight="11.4"/>
+  <sheetFormatPr defaultColWidth="20.75" defaultRowHeight="11.25"/>
   <cols>
-    <col min="1" max="16384" width="20.69921875" style="1"/>
+    <col min="1" max="16384" width="20.75" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:20">
@@ -22512,9 +22512,9 @@
       <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="20.69921875" defaultRowHeight="11.4"/>
+  <sheetFormatPr defaultColWidth="20.75" defaultRowHeight="11.25"/>
   <cols>
-    <col min="1" max="16384" width="20.69921875" style="2"/>
+    <col min="1" max="16384" width="20.75" style="2"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:20">
@@ -33369,13 +33369,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:T159"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E21" sqref="E21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="20.69921875" defaultRowHeight="11.4"/>
+  <sheetFormatPr defaultColWidth="20.75" defaultRowHeight="11.25"/>
   <cols>
-    <col min="1" max="16384" width="20.69921875" style="2"/>
+    <col min="1" max="16384" width="20.75" style="2"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:20">
